--- a/data/income_statement/3digits/total/293_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/293_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>293-Manufacture of parts and accessories for motor vehicles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>293-Manufacture of parts and accessories for motor vehicles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>9575278.686709998</v>
@@ -959,34 +865,39 @@
         <v>15861585.5603</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>17032804.0038</v>
+        <v>17047053.02075</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>19875882.11809</v>
+        <v>19921472.49308</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>24648689.19873</v>
+        <v>24888230.18938</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>27299659.79988</v>
+        <v>30273290.83388</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>33221082.57086</v>
+        <v>34555074.26455</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>46087090.21278001</v>
+        <v>46087090.21278</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>61736075.27352001</v>
+        <v>61744506.67424</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>70323664.62247999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>70422358.26301001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>82169619.184</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>6480892.16214</v>
@@ -998,34 +909,39 @@
         <v>10262214.42224</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11186164.15831</v>
+        <v>11200190.35155</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>12616628.07493</v>
+        <v>12657601.32691</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>16142800.57159</v>
+        <v>16253102.73249</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18376995.88089</v>
+        <v>20191152.89831</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21796670.85808</v>
+        <v>22974351.14651</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>30690594.91669</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>39537662.34889</v>
+        <v>39545643.95695</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44702195.20293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44770433.66671</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>52976386.708</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2929940.43757</v>
@@ -1034,37 +950,42 @@
         <v>3684508.12282</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>5364140.39601</v>
+        <v>5364140.396009999</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>5541009.90262</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6929498.26508</v>
+        <v>6933475.91981</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>8049882.83366</v>
+        <v>8177297.37404</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>8423512.252740001</v>
+        <v>9512123.95967</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10833162.96149</v>
+        <v>10947002.29853</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>14471061.91462</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20915056.29222</v>
+        <v>20915481.90769</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>23804833.32395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>23834757.76799</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>27232107.473</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>164446.087</v>
@@ -1076,34 +997,39 @@
         <v>235230.74205</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>305629.94287</v>
+        <v>305852.7665800001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>329755.77808</v>
+        <v>330395.24636</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>456005.79348</v>
+        <v>457830.08285</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>499151.66625</v>
+        <v>570013.9759000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>591248.7512899999</v>
+        <v>633720.8195099999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>925433.38147</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1283356.63241</v>
+        <v>1283380.8096</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1816636.0956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1817166.82831</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1961125.003</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>241945.69618</v>
@@ -1118,34 +1044,39 @@
         <v>388026.6404799999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>333665.39393</v>
+        <v>333811.36169</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>584791.18721</v>
+        <v>599962.4614800001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>680575.2603300001</v>
+        <v>703386.4871199999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>752269.76777</v>
+        <v>784282.8364</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>996852.11757</v>
+        <v>996852.1175699999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1339470.73047</v>
+        <v>1339486.4252</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1577578.54379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1578317.97025</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2080502.453</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>95933.48368999999</v>
+        <v>95933.48369000001</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>94272.30716</v>
@@ -1157,37 +1088,42 @@
         <v>209411.06213</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>140418.4077</v>
+        <v>140455.32222</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>213949.12626</v>
+        <v>214468.51746</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>234166.51682</v>
+        <v>240469.18804</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>280842.20126</v>
+        <v>283201.04342</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>323785.03278</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>500403.42747</v>
+        <v>500417.03047</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>576989.9692200001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>577857.6723</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>602618.863</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>78809.72009</v>
+        <v>78809.72008999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>76544.93765000001</v>
+        <v>76544.93764999999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>86189.33184999999</v>
@@ -1196,73 +1132,83 @@
         <v>110513.04456</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>121726.98111</v>
+        <v>121836.03435</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>289777.78835</v>
+        <v>290219.22284</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>336737.53156</v>
+        <v>352781.32007</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>388012.90802</v>
+        <v>403062.9008600001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>515130.96751</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>607097.3981100001</v>
+        <v>607098.82904</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>694853.7378800001</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1194720.9</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>67202.4924</v>
+        <v>67202.49239999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>63932.27284999999</v>
+        <v>63932.27285</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>54903.20281</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>68102.53378999999</v>
+        <v>68102.53379</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>71520.00511999999</v>
+        <v>71520.00512</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>81064.27260000001</v>
+        <v>95274.72118000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>109671.21195</v>
+        <v>110135.97901</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>83414.65848999997</v>
+        <v>98018.89212</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>157936.11728</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>231969.90489</v>
+        <v>231970.56569</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>305734.8366900001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>305606.5600700001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>283162.69</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>9333332.990529999</v>
+        <v>9333332.990530001</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>11540290.81625</v>
@@ -1271,34 +1217,39 @@
         <v>15621849.57406</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>16644777.36332</v>
+        <v>16659026.38027</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>19542216.72416</v>
+        <v>19587661.13139</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>24063898.01152001</v>
+        <v>24288267.7279</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>26619084.53955</v>
+        <v>29569904.34676</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>32468812.80309</v>
+        <v>33770791.42815</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>45090238.09520999</v>
+        <v>45090238.09521</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>60396604.54305001</v>
+        <v>60405020.24903999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>68746086.07869001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>68844040.29276</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>80089116.73100001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>7904050.18978</v>
@@ -1310,79 +1261,89 @@
         <v>12841047.16739</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>14067482.45451</v>
+        <v>14077926.01739</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16188035.44439</v>
+        <v>16223284.28661</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>19979550.50023</v>
+        <v>20141600.54103</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>21825543.12782</v>
+        <v>24399275.22047</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>26704182.22735</v>
+        <v>27854278.25379</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>36570289.34069</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>48388188.66693</v>
+        <v>48395955.20081</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>55717650.97172999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>55807217.97183</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>63361297.048</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6838601.90082</v>
+        <v>6838601.900820001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>8633446.628099998</v>
+        <v>8633446.6281</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>11648319.92448</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>12654411.79687</v>
+        <v>12664855.35975</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>14766486.99014</v>
+        <v>14793605.45317</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>18095054.29798</v>
+        <v>18255699.7992</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>19664826.67316</v>
+        <v>22129363.90642</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>24147313.78385</v>
+        <v>25250267.13341</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>33307462.78435</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>44089189.98584001</v>
+        <v>44096202.78823</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>50415716.92543001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>50432532.53718</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>56687037.814</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>860680.19034</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>897260.9151200001</v>
+        <v>897260.91512</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>931248.71564</v>
@@ -1391,31 +1352,36 @@
         <v>1017453.99648</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1082137.02938</v>
+        <v>1089385.98403</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1444440.64962</v>
+        <v>1445845.1892</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1571108.10439</v>
+        <v>1630943.32861</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1868767.73837</v>
+        <v>1909212.14582</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2479051.23914</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3152304.061410001</v>
+        <v>3152888.71621</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3617662.33509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3657978.22239</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5107934.652</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>51741.57579</v>
@@ -1424,37 +1390,42 @@
         <v>46000.39321</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>73692.24683999999</v>
+        <v>73692.24684000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>82183.44249000002</v>
+        <v>82183.44249</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>109955.11125</v>
+        <v>110258.18257</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>113840.06791</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>196304.24005</v>
+        <v>196979.63911</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>180989.39632</v>
+        <v>187467.0652</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>273910.43408</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>327715.77861</v>
+        <v>327884.8552999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>443149.0521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>475526.9976400001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>561228.473</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>153026.52283</v>
@@ -1469,16 +1440,16 @@
         <v>313433.21867</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>229456.31362</v>
+        <v>230034.66684</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>326215.4847199999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>393304.11022</v>
+        <v>441988.34633</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>507111.30881</v>
+        <v>507331.90936</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>509864.88312</v>
@@ -1487,13 +1458,18 @@
         <v>818978.8410700001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1241122.65911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1241180.21462</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1005096.109</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1429282.80075</v>
@@ -1502,37 +1478,42 @@
         <v>1812047.69128</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2780802.40667</v>
+        <v>2780802.406669999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2577294.90881</v>
+        <v>2581100.362879999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3354181.279769999</v>
+        <v>3364376.84478</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4084347.51129</v>
+        <v>4146667.18687</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4793541.41173</v>
+        <v>5170629.12629</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5764630.575740001</v>
+        <v>5916513.17436</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>8519948.754519999</v>
+        <v>8519948.754520001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>12008415.87612</v>
+        <v>12009065.04823</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>13028435.10696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13036822.32093</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>16727819.683</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>937804.5003600001</v>
@@ -1544,43 +1525,48 @@
         <v>1344113.19534</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1561803.91746</v>
+        <v>1564908.31798</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1895560.36146</v>
+        <v>1901241.18926</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2230120.23682</v>
+        <v>2252475.78598</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2420620.82354</v>
+        <v>2659226.01825</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3032132.97823</v>
+        <v>3132082.20683</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3817679.27165</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4955828.339699999</v>
+        <v>4959145.7754</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5913500.505700001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5978984.706809999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6796338.27</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>53000.02884</v>
+        <v>53000.02884000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>45165.15287999999</v>
+        <v>45165.15288</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>65967.69370999999</v>
+        <v>65967.69371000001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>70679.06781000001</v>
@@ -1589,28 +1575,33 @@
         <v>101987.0901</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>133924.37137</v>
+        <v>134454.33157</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>139618.40025</v>
+        <v>164268.36996</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>186010.07</v>
+        <v>194206.57155</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>317126.33483</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>373573.31643</v>
+        <v>373746.14342</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>456473.75547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>456827.37055</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>497921.24</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>255938.76605</v>
@@ -1622,34 +1613,39 @@
         <v>419727.09514</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>487989.45038</v>
+        <v>488018.9927</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>581871.2127200001</v>
+        <v>583853.80323</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>699645.7832399999</v>
+        <v>710234.6979500001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>742379.24308</v>
+        <v>820920.4458400001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>942014.16664</v>
+        <v>968965.76195</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1227803.61955</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1682248.47986</v>
+        <v>1682601.73724</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1952823.22443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1953814.83864</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2230085.654</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>628865.70547</v>
@@ -1661,73 +1657,83 @@
         <v>858418.40649</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1003135.39927</v>
+        <v>1006210.25747</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1211702.05864</v>
+        <v>1215400.29593</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1396550.08221</v>
+        <v>1407786.75646</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1538623.18021</v>
+        <v>1674037.20245</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1904108.74159</v>
+        <v>1968909.87333</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2272749.31727</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2900006.54341</v>
+        <v>2902797.89474</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3504203.5258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3568342.49762</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4068331.376</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>491478.30039</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>746852.2179399998</v>
+        <v>746852.21794</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>1436689.21133</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1015490.99135</v>
+        <v>1016192.0449</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1458620.91831</v>
+        <v>1463135.65552</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1854227.27447</v>
+        <v>1894191.40089</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2372920.58819</v>
+        <v>2511403.10804</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2732497.59751</v>
+        <v>2784430.96753</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>4702269.482869999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7052587.53642</v>
+        <v>7049919.27283</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7114934.601260001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7057837.61412</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9931481.413000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>470878.37826</v>
@@ -1739,34 +1745,39 @@
         <v>761257.02547</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>661909.7314200001</v>
+        <v>662285.0901499999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2061106.39093</v>
+        <v>2062303.20636</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3162301.37369</v>
+        <v>3181566.93363</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6316170.233519999</v>
+        <v>7155218.882060001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>6509120.34027</v>
+        <v>6569090.15735</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>14151981.19425</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>36838229.28296</v>
+        <v>36858786.27114</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5630781.38778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5663739.53846</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>22851005.982</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>14231.77273</v>
@@ -1787,7 +1798,7 @@
         <v>15771.39093</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>12212.92144</v>
+        <v>12973.25404</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>11461.39864</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>110197.41725</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>88501.41499999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>52.87584</v>
@@ -1826,7 +1842,7 @@
         <v>70407.32566</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>46810.01936</v>
+        <v>47843.66117</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>84125.34656000001</v>
@@ -1838,13 +1854,18 @@
         <v>27117.71225</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>47401.12774</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>47787.14274</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>77856.70699999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>48054.66946000001</v>
@@ -1856,37 +1877,42 @@
         <v>34426.88499</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>50181.82368</v>
+        <v>50279.72212999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>49348.53258</v>
+        <v>49443.23575</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>69886.04413000001</v>
+        <v>71601.25873</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>94786.57851000001</v>
+        <v>101916.54972</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>95241.42161000002</v>
+        <v>97895.53313000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>137252.92147</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>268205.899</v>
+        <v>269582.54128</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>283788.9682999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>298377.4880299999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>264357.477</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>9566.567120000002</v>
+        <v>9566.56712</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>1257.48211</v>
@@ -1913,16 +1939,21 @@
         <v>2627.82297</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3039.6741</v>
+        <v>3131.0741</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3232.71845</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3247.7696</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>47749.233</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>13326.53793</v>
@@ -1940,13 +1971,13 @@
         <v>19474.77802</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>13055.09115</v>
+        <v>16280.45239</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>18525.18579</v>
+        <v>18625.57392</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7118.97478</v>
+        <v>7189.97478</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>17404.9137</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>22085.4009</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>34345.969</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2618.36441</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>956.6041500000001</v>
+        <v>956.60415</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>1289.37861</v>
@@ -1979,28 +2015,33 @@
         <v>2709.72015</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1079.75206</v>
+        <v>1083.33395</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5677.07338</v>
+        <v>5699.94875</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4060.05731</v>
+        <v>4092.13942</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>5035.10412</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3038.588670000001</v>
+        <v>3038.58867</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>9204.163329999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>9215.228999999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>58748.105</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>333468.45597</v>
@@ -2012,34 +2053,39 @@
         <v>610883.3389499999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>465214.6994700001</v>
+        <v>465457.92213</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1827698.52698</v>
+        <v>1828656.66224</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2862616.42251</v>
+        <v>2873738.2472</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6000626.74935</v>
+        <v>6805387.03646</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6113628.721679999</v>
+        <v>6170660.282</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>13737878.91149</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>36067550.89382</v>
+        <v>36085031.49652</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4725336.217929999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4741346.96754</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>21849593.877</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1081.06995</v>
@@ -2057,7 +2103,7 @@
         <v>3800.49754</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>8973.064759999999</v>
+        <v>9153.70938</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>12357.74041</v>
@@ -2066,7 +2112,7 @@
         <v>4717.81264</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>5570.84607</v>
+        <v>5570.846070000001</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>7412.72646</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>3496.8037</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>6514.017</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>15.14567</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>48462.91918</v>
@@ -2129,73 +2185,83 @@
         <v>70479.45625999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>86252.73679000001</v>
+        <v>86286.97441</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>132415.86981</v>
+        <v>132559.84681</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>111418.54071</v>
+        <v>114437.47361</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>123144.81515</v>
+        <v>148385.96746</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>186473.74197</v>
+        <v>186654.8051</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>211185.9490399999</v>
+        <v>211185.94904</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>342284.34437</v>
+        <v>343892.68757</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>426038.5701799999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>427985.3197</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>423305.782</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>400688.12617</v>
+        <v>400688.1261699999</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>375294.95726</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>727145.5539100001</v>
+        <v>727145.55391</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>537108.6513199999</v>
+        <v>537332.956</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2077011.28273</v>
+        <v>2081109.19436</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2999732.10723</v>
+        <v>3011921.08919</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6286630.00407</v>
+        <v>7167412.675109999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6494049.98404</v>
+        <v>6553841.36274</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>14220646.60814</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>36780253.16099999</v>
+        <v>36791246.59747</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5124412.950459999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5134750.558129999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>21909746.299</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1943.93152</v>
@@ -2213,10 +2279,10 @@
         <v>4712.24546</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>12566.6501</v>
+        <v>12567.57306</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>11304.6376</v>
+        <v>11483.41121</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>15329.32999</v>
@@ -2228,13 +2294,18 @@
         <v>26459.61387</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>34413.88734</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>34446.14402</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>42444.566</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>25218.83245</v>
@@ -2255,37 +2326,42 @@
         <v>21570.59452</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>45581.28334999999</v>
+        <v>45581.28335</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>43392.49669000001</v>
+        <v>43392.49669</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>57068.66686999999</v>
+        <v>57068.66687</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>84831.82444999999</v>
+        <v>84831.82445</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>94284.10322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>94295.43122</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>141007.814</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>869.74473</v>
+        <v>869.7447300000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>22.04814</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>62.76948999999999</v>
+        <v>62.76949</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>4987.74944</v>
+        <v>4987.749440000001</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>315.2637099999999</v>
@@ -2294,25 +2370,30 @@
         <v>177919.88228</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>203.35265</v>
+        <v>203.35519</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>80.64035000000001</v>
+        <v>80.80265000000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>992.0518</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>514.6497800000001</v>
+        <v>514.64978</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>6261.575890000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>5402.883</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>356974.36223</v>
@@ -2324,40 +2405,45 @@
         <v>673360.36254</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>458365.7228700001</v>
+        <v>458560.01555</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1980567.64762</v>
+        <v>1984591.44053</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2725235.96381</v>
+        <v>2737108.23183</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6161959.459040001</v>
+        <v>7030953.76107</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6372254.66283</v>
+        <v>6431387.915490001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>14062853.58906</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>36541890.40443999</v>
+        <v>36552849.1216</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4843661.890939999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4854096.715690001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>21528832.74</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>584.26658</v>
+        <v>584.2665800000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>622.39147</v>
+        <v>622.3914700000001</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>827.4315899999999</v>
@@ -2369,7 +2455,7 @@
         <v>5015.98994</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>9756.980109999999</v>
+        <v>9809.50676</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>10932.38774</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>2955.62602</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>7573.524</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>80.91604999999998</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>3.24928</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>15016.07261</v>
@@ -2441,34 +2537,39 @@
         <v>32887.24262</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>37588.417</v>
+        <v>37618.429</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>59662.14012</v>
+        <v>59736.25884</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>52678.73974</v>
+        <v>52942.00407</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>56648.88369</v>
+        <v>68258.47654999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>58488.243</v>
+        <v>59146.20674</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>78182.3524</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>119913.55662</v>
+        <v>119948.27593</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>142832.61777</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>142691.81601</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>184484.772</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>190460.15836</v>
@@ -2480,34 +2581,39 @@
         <v>257199.25708</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>218462.26556</v>
+        <v>218622.77246</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>326639.53307</v>
+        <v>327580.27138</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>321189.7155999999</v>
+        <v>325687.23674</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>418579.2332200001</v>
+        <v>467831.3907999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>481537.98437</v>
+        <v>485106.52518</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>644925.65322</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1183027.87546</v>
+        <v>1183113.73066</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1153875.47297</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1155210.0412</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1771742.589</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>170404.09289</v>
@@ -2519,34 +2625,39 @@
         <v>213096.41946</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>193501.59276</v>
+        <v>193662.09966</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>273060.83851</v>
+        <v>273483.03377</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>263768.92611</v>
+        <v>267894.15231</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>353216.27432</v>
+        <v>381556.97289</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>406775.3265500001</v>
+        <v>410186.05744</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>520167.62514</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1000694.83606</v>
+        <v>1000780.69126</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>964176.17461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>965510.74284</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1376279.367</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>20056.06547</v>
@@ -2561,16 +2672,16 @@
         <v>24960.6728</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>53578.69456</v>
+        <v>54097.23761</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>57420.78949</v>
+        <v>57793.08443</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>65362.9589</v>
+        <v>86274.41790999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>74762.65781999999</v>
+        <v>74920.46773999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>124758.02808</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>189699.29836</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>395463.222</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>371208.39412</v>
@@ -2597,34 +2713,39 @@
         <v>1213601.42581</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>921829.8058900001</v>
+        <v>922521.4065899999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1116076.49344</v>
+        <v>1116749.39614</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1695606.82533</v>
+        <v>1738150.00859</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1983881.58442</v>
+        <v>2031377.92419</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2266029.96937</v>
+        <v>2314573.23696</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>3988678.41576</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5927535.78292</v>
+        <v>5934345.21584</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6467427.56561</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6431616.55325</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>9100998.506999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>60140.15741</v>
@@ -2639,34 +2760,39 @@
         <v>122982.87676</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>249199.10056</v>
+        <v>249278.06652</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>202244.8817</v>
+        <v>206850.3282</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>173066.64607</v>
+        <v>205857.75464</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>286674.57963</v>
+        <v>291363.2589</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>356047.3406</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>332891.35051</v>
+        <v>345044.53191</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>390942.8669300001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>391514.77803</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>467356.883</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3049.090000000001</v>
+        <v>3049.09</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>3962.39336</v>
@@ -2681,34 +2807,39 @@
         <v>3327.47699</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2124.87565</v>
+        <v>2125.5801</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3378.44282</v>
+        <v>3426.3677</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6370.706129999999</v>
+        <v>6459.48919</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>89453.91753999999</v>
+        <v>89453.91754000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2869.99717</v>
+        <v>2869.997170000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>7576.98035</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7581.165839999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6353.771</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>57091.06741</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>70617.7963</v>
+        <v>70617.79630000002</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>98000.0615</v>
@@ -2717,34 +2848,39 @@
         <v>121119.7716</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>245871.62357</v>
+        <v>245950.58953</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>200120.00605</v>
+        <v>204724.7481</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>169688.20325</v>
+        <v>202431.38694</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>280303.8735</v>
+        <v>284903.76971</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>266593.42306</v>
+        <v>266593.4230600001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>330021.35334</v>
+        <v>342174.53474</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>383365.88658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>383933.61219</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>461003.112</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>76843.46402</v>
+        <v>76843.46402000001</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>58463.42503</v>
@@ -2753,34 +2889,39 @@
         <v>276525.37613</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>99905.47385000001</v>
+        <v>99968.17082</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>173730.72881</v>
+        <v>173802.65283</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>199100.07058</v>
+        <v>199694.42744</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>139538.16426</v>
+        <v>145830.39391</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>287441.13564</v>
+        <v>290008.51001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>406028.11262</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>542000.10731</v>
+        <v>543221.41717</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>365145.4307699999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>365022.13453</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>677077.9669999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>16047.28748</v>
@@ -2789,7 +2930,7 @@
         <v>3974.81159</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4964.015800000001</v>
+        <v>4964.0158</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>10223.48186</v>
@@ -2801,25 +2942,30 @@
         <v>16658.01164</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>13506.63961</v>
+        <v>13684.57472</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>48973.4218</v>
+        <v>49472.44498000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>101219.04874</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>56255.4605</v>
+        <v>56276.53781</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>59340.78593000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>58049.43778</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>158932.963</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>11518.11683</v>
@@ -2828,7 +2974,7 @@
         <v>5980.27516</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7063.451369999999</v>
+        <v>7063.45137</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>8136.71615</v>
@@ -2837,106 +2983,121 @@
         <v>11505.57999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9425.31198</v>
+        <v>9467.199769999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>23671.74651</v>
+        <v>23966.58614</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>8219.134680000001</v>
+        <v>8613.079119999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>9054.88733</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>17058.43994</v>
+        <v>17058.57658</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>33021.44895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>33037.70999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>26206.234</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>49278.05971</v>
+        <v>49278.05971000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>48508.33828</v>
+        <v>48508.33828000001</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>264497.90896</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>81545.27584</v>
+        <v>81607.97281000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>150907.35143</v>
+        <v>150979.27545</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>173016.74696</v>
+        <v>173569.21603</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>102359.77814</v>
+        <v>108179.23305</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>230248.57916</v>
+        <v>231922.98591</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>295754.17655</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>468686.20687</v>
+        <v>469886.30278</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>272783.19589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>273934.98676</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>491938.77</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>354505.08751</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>709306.40322</v>
+        <v>709306.4032199999</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>1044530.21855</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>944907.2087999999</v>
+        <v>945536.11253</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1191544.86519</v>
+        <v>1192224.80983</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1698751.63645</v>
+        <v>1745305.90935</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2017410.06623</v>
+        <v>2091405.28492</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2265263.41336</v>
+        <v>2315927.98585</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>3938697.64374</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5718427.02612</v>
+        <v>5736168.33058</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6493225.001769999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6458109.19675</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>8891277.423</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>92171.74097</v>
@@ -2948,34 +3109,39 @@
         <v>195605.67157</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>160246.35081</v>
+        <v>160339.07715</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>220484.2931</v>
+        <v>221076.05386</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>254785.58959</v>
+        <v>262416.14077</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>291724.21581</v>
+        <v>300276.06549</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>353088.36807</v>
+        <v>360957.73211</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>503255.5947899999</v>
+        <v>503255.59479</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>584879.94575</v>
+        <v>586723.12147</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>729133.2869300001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>731624.13452</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1021747.806</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>262333.34654</v>
@@ -2987,31 +3153,34 @@
         <v>848924.54698</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>784660.85799</v>
+        <v>785197.03538</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>971060.5720899999</v>
+        <v>971148.7559700001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1443966.04686</v>
+        <v>1482889.76858</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1725685.85042</v>
+        <v>1791129.21943</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1912175.04529</v>
+        <v>1954970.25374</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>3435442.04895</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>5133547.08037</v>
+        <v>5149445.20911</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5764091.71484</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5726485.06223</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7869529.617</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2036</v>
@@ -3041,31 +3213,34 @@
         <v>2027</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1839</v>
+        <v>1849</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1821</v>
+        <v>1847</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1859</v>
+        <v>1882</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1913</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1852</v>
+        <v>1991</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2098</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>